--- a/va_facility_data_2025-02-20/Bowling Green VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bowling%20Green%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bowling Green VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bowling%20Green%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R90fc29116e1a4a4d80367105fa05e918"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R710e86473a95494097d60d16fcab0eb1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R68cb237bd40e4d409f84bfe07549d384"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R609c03e9030b4640af9313cd2516c46e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R541530f7af3d4c1d961ebadfea235304"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R93a0a0dd49b44e0eb03346cdc27d2dc3"/>
   </x:sheets>
 </x:workbook>
 </file>
